--- a/exel/Requerimiento_Software.xlsx
+++ b/exel/Requerimiento_Software.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CC4612-3B70-4782-9342-14AB82DF006D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Requerimiento</t>
   </si>
@@ -84,26 +80,195 @@
     <t>Hosting</t>
   </si>
   <si>
-    <t>HostGator 50.000 COP/mes</t>
+    <t>HostGator/ hostgator.co</t>
   </si>
   <si>
     <t>50.000 COP/mes</t>
+  </si>
+  <si>
+    <t>Hosting Colombia/ latinoamericahosting.com</t>
+  </si>
+  <si>
+    <t>80.000 COP/anual</t>
+  </si>
+  <si>
+    <t>BlueHosting/ bluehosting.com.co</t>
+  </si>
+  <si>
+    <t>180.000 COP/anual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,16 +277,215 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="3" tint="0.899990844447157"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -147,10 +511,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -165,58 +529,381 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -265,7 +952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -298,26 +985,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -350,23 +1020,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,29 +1181,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:O24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E4:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:15">
@@ -566,147 +1214,164 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="6" spans="5:15">
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" s="2" t="s">
+    <row r="6" spans="5:8">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="5:7">
+      <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
-      <c r="E12" s="7"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" s="5" t="s">
+    <row r="12" spans="5:7">
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" s="5" t="s">
+    <row r="14" spans="5:7">
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
-      <c r="E16" s="6"/>
-      <c r="F16" s="4" t="s">
+    <row r="16" spans="5:7">
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="6"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="5:7">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="5:7">
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="5:7">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="14"/>
+      <c r="F25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E4:O4"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E4:O4"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>